--- a/evaluation/results/one_svm/split_2/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_2/test_95_5/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.1715039577836412</v>
       </c>
       <c r="H2">
-        <v>0.5396602461209203</v>
+        <v>0.8032370251471376</v>
       </c>
       <c r="I2">
         <v>5</v>

--- a/evaluation/results/one_svm/split_2/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_2/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.8647686832740213</v>
+        <v>0.400355871886121</v>
       </c>
       <c r="C2">
-        <v>0.08620689655172414</v>
+        <v>0.0743801652892562</v>
       </c>
       <c r="D2">
-        <v>0.1785714285714286</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="E2">
-        <v>0.1162790697674419</v>
+        <v>0.1381074168797954</v>
       </c>
       <c r="F2">
-        <v>0.1470588235294118</v>
+        <v>0.2842105263157895</v>
       </c>
       <c r="G2">
-        <v>0.1715039577836412</v>
+        <v>0.6603951081843838</v>
       </c>
       <c r="H2">
-        <v>0.8032370251471376</v>
+        <v>0.7998261102193687</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>336</v>
       </c>
       <c r="K2">
-        <v>481</v>
+        <v>198</v>
       </c>
       <c r="L2">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9543650793650794</v>
+        <v>0.9949748743718593</v>
       </c>
       <c r="C2">
-        <v>0.900749063670412</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="D2">
-        <v>0.9267822736030829</v>
+        <v>0.5402455661664393</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.08620689655172414</v>
+        <v>0.0743801652892562</v>
       </c>
       <c r="C3">
-        <v>0.1785714285714286</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="D3">
-        <v>0.1162790697674419</v>
+        <v>0.1381074168797954</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8647686832740213</v>
+        <v>0.400355871886121</v>
       </c>
       <c r="C4">
-        <v>0.8647686832740213</v>
+        <v>0.400355871886121</v>
       </c>
       <c r="D4">
-        <v>0.8647686832740213</v>
+        <v>0.400355871886121</v>
       </c>
       <c r="E4">
-        <v>0.8647686832740213</v>
+        <v>0.400355871886121</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5202859879584018</v>
+        <v>0.5346775198305578</v>
       </c>
       <c r="C5">
-        <v>0.5396602461209202</v>
+        <v>0.6675361155698234</v>
       </c>
       <c r="D5">
-        <v>0.5215306716852623</v>
+        <v>0.3391764915231174</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9111116467693962</v>
+        <v>0.9491089458054663</v>
       </c>
       <c r="C6">
-        <v>0.8647686832740213</v>
+        <v>0.400355871886121</v>
       </c>
       <c r="D6">
-        <v>0.8864013310632288</v>
+        <v>0.5202102135329409</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>481</v>
+        <v>198</v>
       </c>
       <c r="C2">
-        <v>53</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
